--- a/2025_May_Fasttrack_DA/Attendance.xlsx
+++ b/2025_May_Fasttrack_DA/Attendance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\all_batches\2025_May_Fasttrack_DA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529C3D32-D039-472F-9550-4ABB4B0772E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6534606A-0B49-46CB-B035-13189D5D22FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="29">
   <si>
     <t>Soham Thakkar</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>Khush Mevada</t>
+  </si>
+  <si>
+    <t>Advanced SQL</t>
+  </si>
+  <si>
+    <t>Nishkal Doctor</t>
   </si>
 </sst>
 </file>
@@ -424,9 +430,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -452,9 +460,10 @@
     <col min="20" max="20" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -521,8 +530,11 @@
       <c r="V1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45790</v>
       </c>
@@ -582,7 +594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45792</v>
       </c>
@@ -642,7 +654,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45793</v>
       </c>
@@ -702,7 +714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45796</v>
       </c>
@@ -762,7 +774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45797</v>
       </c>
@@ -822,7 +834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45799</v>
       </c>
@@ -882,7 +894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45800</v>
       </c>
@@ -942,7 +954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -951,12 +963,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45802</v>
       </c>
@@ -967,7 +979,7 @@
         <v>13</v>
       </c>
       <c r="D12">
-        <f t="shared" ref="D12:D23" si="1">C12-B12</f>
+        <f t="shared" ref="D12:D25" si="1">C12-B12</f>
         <v>2</v>
       </c>
       <c r="E12" t="s">
@@ -1022,7 +1034,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45803</v>
       </c>
@@ -1057,6 +1069,9 @@
       <c r="K13" t="s">
         <v>13</v>
       </c>
+      <c r="L13" t="s">
+        <v>13</v>
+      </c>
       <c r="M13" t="s">
         <v>13</v>
       </c>
@@ -1088,7 +1103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45804</v>
       </c>
@@ -1123,6 +1138,9 @@
       <c r="K14" t="s">
         <v>13</v>
       </c>
+      <c r="L14" t="s">
+        <v>13</v>
+      </c>
       <c r="M14" t="s">
         <v>13</v>
       </c>
@@ -1154,7 +1172,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45806</v>
       </c>
@@ -1223,7 +1241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45807</v>
       </c>
@@ -1292,44 +1310,184 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45811</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17" t="s">
+        <v>13</v>
+      </c>
+      <c r="N17" t="s">
+        <v>14</v>
+      </c>
+      <c r="O17" t="s">
+        <v>13</v>
+      </c>
+      <c r="P17" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>15</v>
+      </c>
+      <c r="R17" t="s">
+        <v>15</v>
+      </c>
+      <c r="S17" t="s">
+        <v>13</v>
+      </c>
+      <c r="T17" t="s">
+        <v>13</v>
+      </c>
+      <c r="U17" t="s">
+        <v>14</v>
+      </c>
+      <c r="V17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+        <f>SUM(D12:D17)</f>
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45813</v>
+      </c>
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>16</v>
+      </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M21" t="s">
+        <v>13</v>
+      </c>
+      <c r="N21" t="s">
+        <v>13</v>
+      </c>
+      <c r="O21" t="s">
+        <v>14</v>
+      </c>
+      <c r="P21" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>15</v>
+      </c>
+      <c r="R21" t="s">
+        <v>15</v>
+      </c>
+      <c r="S21" t="s">
+        <v>15</v>
+      </c>
+      <c r="T21" t="s">
+        <v>13</v>
+      </c>
+      <c r="U21" t="s">
+        <v>14</v>
+      </c>
+      <c r="V21" t="s">
+        <v>14</v>
+      </c>
+      <c r="W21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>

--- a/2025_May_Fasttrack_DA/Attendance.xlsx
+++ b/2025_May_Fasttrack_DA/Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\all_batches\2025_May_Fasttrack_DA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6534606A-0B49-46CB-B035-13189D5D22FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76A6BB0-7460-438C-AD19-F38065000A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="29">
   <si>
     <t>Soham Thakkar</t>
   </si>
@@ -147,9 +147,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,7 +434,7 @@
   <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1469,15 +1470,147 @@
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45814</v>
+      </c>
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>16</v>
+      </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" t="s">
+        <v>14</v>
+      </c>
+      <c r="M22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N22" t="s">
+        <v>13</v>
+      </c>
+      <c r="O22" t="s">
+        <v>14</v>
+      </c>
+      <c r="P22" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>15</v>
+      </c>
+      <c r="R22" t="s">
+        <v>13</v>
+      </c>
+      <c r="S22" t="s">
+        <v>15</v>
+      </c>
+      <c r="T22" t="s">
+        <v>13</v>
+      </c>
+      <c r="U22" t="s">
+        <v>15</v>
+      </c>
+      <c r="V22" t="s">
+        <v>14</v>
+      </c>
+      <c r="W22" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45818</v>
+      </c>
+      <c r="B23" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="C23">
+        <v>16</v>
+      </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N23" t="s">
+        <v>15</v>
+      </c>
+      <c r="O23" t="s">
+        <v>15</v>
+      </c>
+      <c r="P23" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>15</v>
+      </c>
+      <c r="R23" t="s">
+        <v>13</v>
+      </c>
+      <c r="S23" t="s">
+        <v>13</v>
+      </c>
+      <c r="T23" t="s">
+        <v>13</v>
+      </c>
+      <c r="U23" t="s">
+        <v>14</v>
+      </c>
+      <c r="V23" t="s">
+        <v>14</v>
+      </c>
+      <c r="W23" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">

--- a/2025_May_Fasttrack_DA/Attendance.xlsx
+++ b/2025_May_Fasttrack_DA/Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\all_batches\2025_May_Fasttrack_DA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76A6BB0-7460-438C-AD19-F38065000A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B616F6E4-2484-4E66-9741-4F6B80BC2FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="29">
   <si>
     <t>Soham Thakkar</t>
   </si>
@@ -147,10 +147,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W25"/>
+  <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1545,7 +1544,7 @@
       <c r="A23" s="1">
         <v>45818</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23">
         <v>12.5</v>
       </c>
       <c r="C23">
@@ -1614,15 +1613,156 @@
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45820</v>
+      </c>
+      <c r="B24">
+        <v>12.5</v>
+      </c>
+      <c r="C24">
+        <v>16</v>
+      </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" t="s">
+        <v>13</v>
+      </c>
+      <c r="N24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O24" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>15</v>
+      </c>
+      <c r="R24" t="s">
+        <v>13</v>
+      </c>
+      <c r="S24" t="s">
+        <v>13</v>
+      </c>
+      <c r="T24" t="s">
+        <v>13</v>
+      </c>
+      <c r="U24" t="s">
+        <v>15</v>
+      </c>
+      <c r="V24" t="s">
+        <v>14</v>
+      </c>
+      <c r="W24" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45821</v>
+      </c>
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>16</v>
+      </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" t="s">
+        <v>13</v>
+      </c>
+      <c r="M25" t="s">
+        <v>13</v>
+      </c>
+      <c r="N25" t="s">
+        <v>15</v>
+      </c>
+      <c r="O25" t="s">
+        <v>15</v>
+      </c>
+      <c r="P25" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>15</v>
+      </c>
+      <c r="R25" t="s">
+        <v>13</v>
+      </c>
+      <c r="S25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T25" t="s">
+        <v>13</v>
+      </c>
+      <c r="U25" t="s">
+        <v>15</v>
+      </c>
+      <c r="V25" t="s">
+        <v>14</v>
+      </c>
+      <c r="W25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26">
+        <f>SUM(D21:D25)</f>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/2025_May_Fasttrack_DA/Attendance.xlsx
+++ b/2025_May_Fasttrack_DA/Attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\all_batches\2025_May_Fasttrack_DA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B616F6E4-2484-4E66-9741-4F6B80BC2FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7974F126-F961-47B2-AA56-852839A914F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6732" yWindow="0" windowWidth="16176" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="30">
   <si>
     <t>Soham Thakkar</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Nishkal Doctor</t>
+  </si>
+  <si>
+    <t>Numpy</t>
   </si>
 </sst>
 </file>
@@ -147,9 +150,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,10 +434,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1765,6 +1770,173 @@
         <v>19</v>
       </c>
     </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45824</v>
+      </c>
+      <c r="B29">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29:D33" si="2">C29-B29</f>
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M29" t="s">
+        <v>14</v>
+      </c>
+      <c r="N29" t="s">
+        <v>15</v>
+      </c>
+      <c r="O29" t="s">
+        <v>13</v>
+      </c>
+      <c r="P29" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>15</v>
+      </c>
+      <c r="R29" t="s">
+        <v>13</v>
+      </c>
+      <c r="S29" t="s">
+        <v>13</v>
+      </c>
+      <c r="T29" t="s">
+        <v>13</v>
+      </c>
+      <c r="U29" t="s">
+        <v>15</v>
+      </c>
+      <c r="V29" t="s">
+        <v>13</v>
+      </c>
+      <c r="W29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45825</v>
+      </c>
+      <c r="B30" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="C30">
+        <v>16</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" t="s">
+        <v>13</v>
+      </c>
+      <c r="N30" t="s">
+        <v>15</v>
+      </c>
+      <c r="O30" t="s">
+        <v>15</v>
+      </c>
+      <c r="P30" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>15</v>
+      </c>
+      <c r="R30" t="s">
+        <v>15</v>
+      </c>
+      <c r="S30" t="s">
+        <v>14</v>
+      </c>
+      <c r="T30" t="s">
+        <v>14</v>
+      </c>
+      <c r="U30" t="s">
+        <v>15</v>
+      </c>
+      <c r="V30" t="s">
+        <v>14</v>
+      </c>
+      <c r="W30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E1:R1">
     <sortCondition ref="E1"/>

--- a/2025_May_Fasttrack_DA/Attendance.xlsx
+++ b/2025_May_Fasttrack_DA/Attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\all_batches\2025_May_Fasttrack_DA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7974F126-F961-47B2-AA56-852839A914F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853915E0-0D52-49EF-9EAF-B961045FA517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6732" yWindow="0" windowWidth="16176" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="31">
   <si>
     <t>Soham Thakkar</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Numpy</t>
+  </si>
+  <si>
+    <t>Pandas</t>
   </si>
 </sst>
 </file>
@@ -150,10 +153,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,11 +436,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V30" sqref="V30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1786,7 +1788,7 @@
         <v>14</v>
       </c>
       <c r="D29">
-        <f t="shared" ref="D29:D33" si="2">C29-B29</f>
+        <f t="shared" ref="D29:D36" si="2">C29-B29</f>
         <v>3</v>
       </c>
       <c r="E29" t="s">
@@ -1851,7 +1853,7 @@
       <c r="A30" s="1">
         <v>45825</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30">
         <v>12.5</v>
       </c>
       <c r="C30">
@@ -1920,19 +1922,162 @@
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45827</v>
+      </c>
+      <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>16</v>
+      </c>
       <c r="D31">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N31" t="s">
+        <v>13</v>
+      </c>
+      <c r="O31" t="s">
+        <v>14</v>
+      </c>
+      <c r="P31" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>15</v>
+      </c>
+      <c r="R31" t="s">
+        <v>13</v>
+      </c>
+      <c r="S31" t="s">
+        <v>14</v>
+      </c>
+      <c r="T31" t="s">
+        <v>13</v>
+      </c>
+      <c r="U31" t="s">
+        <v>15</v>
+      </c>
+      <c r="V31" t="s">
+        <v>15</v>
+      </c>
+      <c r="W31" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D32">
+        <f>SUM(D29:D31)</f>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>45828</v>
+      </c>
+      <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>16</v>
+      </c>
+      <c r="D35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K35" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" t="s">
+        <v>13</v>
+      </c>
+      <c r="N35" t="s">
+        <v>13</v>
+      </c>
+      <c r="O35" t="s">
+        <v>14</v>
+      </c>
+      <c r="P35" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>15</v>
+      </c>
+      <c r="R35" t="s">
+        <v>13</v>
+      </c>
+      <c r="S35" t="s">
+        <v>14</v>
+      </c>
+      <c r="T35" t="s">
+        <v>13</v>
+      </c>
+      <c r="U35" t="s">
+        <v>13</v>
+      </c>
+      <c r="V35" t="s">
+        <v>15</v>
+      </c>
+      <c r="W35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>

--- a/2025_May_Fasttrack_DA/Attendance.xlsx
+++ b/2025_May_Fasttrack_DA/Attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\all_batches\2025_May_Fasttrack_DA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853915E0-0D52-49EF-9EAF-B961045FA517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D554D546-E80E-4DCC-8E8B-F0330C92FE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="144" yWindow="0" windowWidth="17400" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="31">
   <si>
     <t>Soham Thakkar</t>
   </si>
@@ -436,11 +436,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W36"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W38" sqref="W38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1788,7 +1788,7 @@
         <v>14</v>
       </c>
       <c r="D29">
-        <f t="shared" ref="D29:D36" si="2">C29-B29</f>
+        <f t="shared" ref="D29:D37" si="2">C29-B29</f>
         <v>3</v>
       </c>
       <c r="E29" t="s">
@@ -2077,9 +2077,141 @@
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>45831</v>
+      </c>
+      <c r="B36">
+        <v>11.5</v>
+      </c>
+      <c r="C36">
+        <v>14</v>
+      </c>
       <c r="D36">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" t="s">
+        <v>15</v>
+      </c>
+      <c r="M36" t="s">
+        <v>13</v>
+      </c>
+      <c r="N36" t="s">
+        <v>15</v>
+      </c>
+      <c r="O36" t="s">
+        <v>15</v>
+      </c>
+      <c r="P36" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>15</v>
+      </c>
+      <c r="R36" t="s">
+        <v>15</v>
+      </c>
+      <c r="S36" t="s">
+        <v>14</v>
+      </c>
+      <c r="T36" t="s">
+        <v>13</v>
+      </c>
+      <c r="U36" t="s">
+        <v>13</v>
+      </c>
+      <c r="V36" t="s">
+        <v>13</v>
+      </c>
+      <c r="W36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>45832</v>
+      </c>
+      <c r="B37">
+        <v>12.5</v>
+      </c>
+      <c r="C37">
+        <v>16</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" t="s">
+        <v>15</v>
+      </c>
+      <c r="M37" t="s">
+        <v>13</v>
+      </c>
+      <c r="N37" t="s">
+        <v>15</v>
+      </c>
+      <c r="O37" t="s">
+        <v>15</v>
+      </c>
+      <c r="P37" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>15</v>
+      </c>
+      <c r="R37" t="s">
+        <v>13</v>
+      </c>
+      <c r="S37" t="s">
+        <v>14</v>
+      </c>
+      <c r="T37" t="s">
+        <v>13</v>
+      </c>
+      <c r="U37" t="s">
+        <v>15</v>
+      </c>
+      <c r="V37" t="s">
+        <v>13</v>
+      </c>
+      <c r="W37" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/2025_May_Fasttrack_DA/Attendance.xlsx
+++ b/2025_May_Fasttrack_DA/Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\all_batches\2025_May_Fasttrack_DA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D40823D-226E-4DC7-9AB3-9854AF445D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D77CC6-4948-4EB2-9E06-537E4D81711A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="40">
   <si>
     <t>Soham Thakkar</t>
   </si>
@@ -463,11 +463,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W43"/>
+  <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V3" sqref="V3"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W45" sqref="W45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,6 +593,9 @@
       <c r="R2" s="1">
         <v>45855</v>
       </c>
+      <c r="S2" s="1">
+        <v>45852</v>
+      </c>
       <c r="T2" s="1" t="s">
         <v>37</v>
       </c>
@@ -2370,7 +2373,7 @@
         <v>15</v>
       </c>
       <c r="D43">
-        <f t="shared" ref="D43" si="3">C43-B43</f>
+        <f t="shared" ref="D43:D44" si="3">C43-B43</f>
         <v>2.5</v>
       </c>
       <c r="E43" t="s">
@@ -2425,6 +2428,75 @@
         <v>13</v>
       </c>
       <c r="W43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B44">
+        <v>11.5</v>
+      </c>
+      <c r="C44">
+        <v>14</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="E44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44" t="s">
+        <v>15</v>
+      </c>
+      <c r="K44" t="s">
+        <v>15</v>
+      </c>
+      <c r="M44" t="s">
+        <v>13</v>
+      </c>
+      <c r="N44" t="s">
+        <v>15</v>
+      </c>
+      <c r="O44" t="s">
+        <v>15</v>
+      </c>
+      <c r="P44" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>15</v>
+      </c>
+      <c r="R44" t="s">
+        <v>13</v>
+      </c>
+      <c r="S44" t="s">
+        <v>14</v>
+      </c>
+      <c r="T44" t="s">
+        <v>13</v>
+      </c>
+      <c r="U44" t="s">
+        <v>15</v>
+      </c>
+      <c r="V44" t="s">
+        <v>14</v>
+      </c>
+      <c r="W44" t="s">
         <v>13</v>
       </c>
     </row>
